--- a/src/main/java/TestData/TestData.xlsx
+++ b/src/main/java/TestData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Min_Exp</t>
   </si>
@@ -44,16 +44,78 @@
   </si>
   <si>
     <t>Automation Test Engineer</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>PreferredLocation</t>
+  </si>
+  <si>
+    <t>CurrentLocation</t>
+  </si>
+  <si>
+    <t>CurrentCTC</t>
+  </si>
+  <si>
+    <t>ExpectedCTC</t>
+  </si>
+  <si>
+    <t>PrimarySkills</t>
+  </si>
+  <si>
+    <t>SecondarySkills</t>
+  </si>
+  <si>
+    <t>NoticePeriod</t>
+  </si>
+  <si>
+    <t>Andalib</t>
+  </si>
+  <si>
+    <t>Sheikh</t>
+  </si>
+  <si>
+    <t>andalib.sheikh22062@gmail.com</t>
+  </si>
+  <si>
+    <t>Jodhpur</t>
+  </si>
+  <si>
+    <t>Java, Selenium, TestNG, GitHub Actions, ServiceNow</t>
+  </si>
+  <si>
+    <t>PL/SQL</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,13 +138,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,16 +427,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +465,41 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -403,8 +515,45 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7792016995</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>879000</v>
+      </c>
+      <c r="M2">
+        <v>1400000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>